--- a/data/Gr_pr.xlsx
+++ b/data/Gr_pr.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Programs\PyProjects\subd\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\PyProj\subd\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7AB2407-7278-4D4A-9708-2346F38FA4A8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDC42F90-98C2-453E-8B3C-F24959179F64}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11443" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2740" uniqueCount="1148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2742" uniqueCount="1149">
   <si>
     <t>UniqueID</t>
   </si>
@@ -3469,6 +3469,9 @@
   </si>
   <si>
     <t>29.05.29</t>
+  </si>
+  <si>
+    <t>27.03.19</t>
   </si>
 </sst>
 </file>
@@ -3789,15 +3792,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L401"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A385" workbookViewId="0">
-      <selection activeCell="F177" sqref="F177"/>
+    <sheetView tabSelected="1" topLeftCell="A263" workbookViewId="0">
+      <selection activeCell="F284" sqref="F284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="15.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.3984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="35.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="35.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
@@ -12342,8 +12345,8 @@
       <c r="E229" t="s">
         <v>7</v>
       </c>
-      <c r="F229" s="1">
-        <v>47267</v>
+      <c r="F229" s="1" t="s">
+        <v>1147</v>
       </c>
       <c r="G229">
         <v>400000</v>
@@ -14411,8 +14414,8 @@
       <c r="E284" t="s">
         <v>39</v>
       </c>
-      <c r="F284" s="1">
-        <v>43551</v>
+      <c r="F284" s="1" t="s">
+        <v>1148</v>
       </c>
       <c r="G284">
         <v>700000</v>
